--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1449,6 +1449,646 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 5.96 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.18 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.15 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.10 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.33 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 5.49 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 5.81 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 5.64 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.24 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.24 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.24 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.26 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 5.71 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 7.50 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 7.55 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 5.84 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2089,6 +2089,46 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 5.99 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="System Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="System Info" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2089,6 +2089,46 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 7.51 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2129,6 +2129,206 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.97 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 7.26 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 7.43 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 7.33 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 7.35 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2329,6 +2329,46 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 7.47 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2129,6 +2129,86 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 7.83 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 7.81 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="System Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="System Info" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2329,6 +2329,46 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 7.51 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2129,6 +2129,46 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 7.59 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2369,6 +2369,46 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 7.48 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2409,6 +2409,46 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 6.59 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2449,6 +2449,46 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.49 GB, Used Memory: 5.96 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/window.xlsx
+++ b/window.xlsx
@@ -1,92 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovan.souern\Desktop\Project-Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="System Info" sheetId="1" r:id="rId1"/>
+    <sheet name="System Info" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Specification</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>System Model</t>
-  </si>
-  <si>
-    <t>Asset Tag</t>
-  </si>
-  <si>
-    <t>System Remark</t>
-  </si>
-  <si>
-    <t>Total Memory: 15.86 GB, Used Memory: 6.91 GB, Total Disk Space: 237.84 GB</t>
-  </si>
-  <si>
-    <t>Sovan.Souern</t>
-  </si>
-  <si>
-    <t>1L0N1W2</t>
-  </si>
-  <si>
-    <t>AMD64</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PNCL114</t>
-  </si>
-  <si>
-    <t>AT/AT COMPATIBLE</t>
-  </si>
-  <si>
-    <t>Operating System</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,27 +57,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,75 +424,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="28.28515625" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="27.7109375" customWidth="1" min="4" max="4"/>
+    <col width="28.28515625" customWidth="1" min="5" max="5"/>
+    <col width="20.5703125" customWidth="1" min="6" max="6"/>
+    <col width="20.28515625" customWidth="1" min="7" max="7"/>
+    <col width="20.85546875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Specification</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>System Model</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Operating System</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Asset Tag</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>System Remark</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory: 15.86 GB, Used Memory: 6.91 GB, Total Disk Space: 237.84 GB</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Sovan.Souern</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1L0N1W2</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>PNCL114</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Total Memory    : 15.49 GB, Used Memory     : 6.05 GB, Total Disk Space: 118.14 GB</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Sokchea.Boy</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>64ZH8L2</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>AMD64</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>PNCLB22-120</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>AT/AT COMPATIBLE</t>
+        </is>
       </c>
     </row>
   </sheetData>
